--- a/TestNG/resources/dataprovider.xlsx
+++ b/TestNG/resources/dataprovider.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nal-n\Desktop\Projects\Applications and Websites\Software-Testing-Bootcamp\TestNG\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66860F80-DBCF-4468-AC52-1BD74ADC6D11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FD0F65A-8609-4871-AF03-315FC73BD5E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10536" xr2:uid="{39B91DCB-B8AD-4C4D-91DB-293F6094909B}"/>
   </bookViews>
@@ -34,21 +34,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
-  <si>
-    <t>Test Case</t>
-  </si>
-  <si>
-    <t>Data</t>
-  </si>
-  <si>
-    <t>search txt</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>TestNG</t>
   </si>
   <si>
     <t>Selenium</t>
+  </si>
+  <si>
+    <t>Test ID</t>
+  </si>
+  <si>
+    <t>test1</t>
+  </si>
+  <si>
+    <t>test2</t>
+  </si>
+  <si>
+    <t>test3</t>
+  </si>
+  <si>
+    <t>values</t>
+  </si>
+  <si>
+    <t>JUnit Testing</t>
+  </si>
+  <si>
+    <t>Saudi Digital Academy</t>
+  </si>
+  <si>
+    <t>Coding Dojo</t>
+  </si>
+  <si>
+    <t>Google</t>
   </si>
 </sst>
 </file>
@@ -400,34 +418,57 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B898F21-8614-4E9D-A3BC-284986683B86}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="2" max="2" width="22.1015625" customWidth="1"/>
+    <col min="3" max="3" width="16.26171875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/TestNG/resources/dataprovider.xlsx
+++ b/TestNG/resources/dataprovider.xlsx
@@ -3,19 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nal-n\Desktop\Projects\Applications and Websites\Software-Testing-Bootcamp\TestNG\resources\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FD0F65A-8609-4871-AF03-315FC73BD5E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{C444ED44-0865-4EA7-96CC-295080AC516A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10536" xr2:uid="{39B91DCB-B8AD-4C4D-91DB-293F6094909B}"/>
+    <workbookView xWindow="732" yWindow="732" windowWidth="19416" windowHeight="11016" xr2:uid="{39B91DCB-B8AD-4C4D-91DB-293F6094909B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -421,7 +417,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
